--- a/target/test-classes/ExcelFiles/Zigwheels.xlsx
+++ b/target/test-classes/ExcelFiles/Zigwheels.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="336" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="608" uniqueCount="45">
   <si>
     <t>BikeNames</t>
   </si>
@@ -901,7 +901,7 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="B2" t="s">
         <v>4</v>

--- a/target/test-classes/ExcelFiles/Zigwheels.xlsx
+++ b/target/test-classes/ExcelFiles/Zigwheels.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="608" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="828" uniqueCount="45">
   <si>
     <t>BikeNames</t>
   </si>
